--- a/matlab/MeCorr/VariablesSaved/sigRxnT_4FBA.xlsx
+++ b/matlab/MeCorr/VariablesSaved/sigRxnT_4FBA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laure\Documents\CancerMetabRes\egem-lf\matlab\MeCorr\VariablesSaved\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E527DD-9A26-44EC-AC31-DEFDCD6FB993}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00F44241-8845-49F0-A1CD-432A3F7B38B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10680" yWindow="2595" windowWidth="10155" windowHeight="7875" xr2:uid="{76811F90-4460-40FB-B14F-B6E5CC8A0624}"/>
+    <workbookView xWindow="10335" yWindow="2250" windowWidth="10155" windowHeight="7875" xr2:uid="{76811F90-4460-40FB-B14F-B6E5CC8A0624}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="54">
   <si>
     <t>Rxn</t>
   </si>
@@ -44,48 +44,12 @@
     <t>EX_adprib(e)</t>
   </si>
   <si>
-    <t>CSNATr</t>
-  </si>
-  <si>
-    <t>TRIODTHYt2</t>
-  </si>
-  <si>
-    <t>SUCCt4_3</t>
-  </si>
-  <si>
     <t>EX_34dhphe(e)</t>
   </si>
   <si>
     <t>PI45P3K</t>
   </si>
   <si>
-    <t>RADH</t>
-  </si>
-  <si>
-    <t>COAtp</t>
-  </si>
-  <si>
-    <t>ACACtx</t>
-  </si>
-  <si>
-    <t>HMGCOAtm</t>
-  </si>
-  <si>
-    <t>EX_hco3(e)</t>
-  </si>
-  <si>
-    <t>HMGCOASim</t>
-  </si>
-  <si>
-    <t>COAtm</t>
-  </si>
-  <si>
-    <t>CRNCARtp</t>
-  </si>
-  <si>
-    <t>CSNATp</t>
-  </si>
-  <si>
     <t>HMGLx</t>
   </si>
   <si>
@@ -134,30 +98,18 @@
     <t>Lysine Metabolism</t>
   </si>
   <si>
-    <t>Carnitine shuttle</t>
-  </si>
-  <si>
     <t>Transport, Extracellular</t>
   </si>
   <si>
     <t>Inositol Phosphate Metabolism</t>
   </si>
   <si>
-    <t>Vitamin A Metabolism</t>
-  </si>
-  <si>
     <t>Transport, Peroxisomal</t>
   </si>
   <si>
-    <t>Transport, Mitochondrial</t>
-  </si>
-  <si>
     <t>Cholesterol Metabolism</t>
   </si>
   <si>
-    <t>Fatty Acid Metabolism</t>
-  </si>
-  <si>
     <t>RxnName</t>
   </si>
   <si>
@@ -167,12 +119,6 @@
     <t>ADPribose exchange</t>
   </si>
   <si>
-    <t>carnitine O-acetyltransferase</t>
-  </si>
-  <si>
-    <t>T3 transport via facilitated diffusion</t>
-  </si>
-  <si>
     <t>succinate transport via sodium symport</t>
   </si>
   <si>
@@ -182,33 +128,6 @@
     <t>phosphatidylinositol 4,5-bisphosphate 3-kinase</t>
   </si>
   <si>
-    <t>retinal dehydrogenase</t>
-  </si>
-  <si>
-    <t>coenzyme A transport, peroxisomal</t>
-  </si>
-  <si>
-    <t>acetoacetate intracellular transport unknown mechanism</t>
-  </si>
-  <si>
-    <t>Hydroxymethylglutaryl-CoA reversible mitochondrial transport</t>
-  </si>
-  <si>
-    <t>Bicarbonate exchange</t>
-  </si>
-  <si>
-    <t>Hydroxymethylglutaryl CoA synthase (ir)</t>
-  </si>
-  <si>
-    <t>CoA transporter</t>
-  </si>
-  <si>
-    <t>carnitine-acetylcarnitine carrier, peroxisomal</t>
-  </si>
-  <si>
-    <t>carnitine O-acetyltransferase, reverse direction, peroxisomal</t>
-  </si>
-  <si>
     <t>hydroxymethylglutaryl-CoA lyase</t>
   </si>
   <si>
@@ -228,6 +147,51 @@
   </si>
   <si>
     <t>Peptidyl-L-lysine exchange</t>
+  </si>
+  <si>
+    <t>ASNt4</t>
+  </si>
+  <si>
+    <t>L-asparagine transport in via sodium symport</t>
+  </si>
+  <si>
+    <t>Nucleotides</t>
+  </si>
+  <si>
+    <t>CpdActivity</t>
+  </si>
+  <si>
+    <t>KDM6A;KDM6B</t>
+  </si>
+  <si>
+    <t>EHMT2</t>
+  </si>
+  <si>
+    <t>CpdGeneTarget</t>
+  </si>
+  <si>
+    <t>probe</t>
+  </si>
+  <si>
+    <t>EX_pchol_hs(e)</t>
+  </si>
+  <si>
+    <t>CYTK3</t>
+  </si>
+  <si>
+    <t>peplyexn</t>
+  </si>
+  <si>
+    <t>Phosphatidylcholine (homo sapiens) exchange</t>
+  </si>
+  <si>
+    <t>cytidylate kinase (CMP)(GTP)</t>
+  </si>
+  <si>
+    <t>methylstat</t>
+  </si>
+  <si>
+    <t>KDM3A;KDM4A;KDM4B;KDM4C;KDM4D</t>
   </si>
 </sst>
 </file>
@@ -586,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74EC1FB-54BF-45AB-BDC6-A045FB078E55}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
@@ -594,385 +558,492 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-0.40799107049532313</v>
+      </c>
+      <c r="B2">
+        <v>2.0904993926503711E-4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-0.40799107049532313</v>
+      </c>
+      <c r="B3">
+        <v>2.0904993926503711E-4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>-0.39314512031276672</v>
+      </c>
+      <c r="B4" s="1">
+        <v>9.824606340752927E-10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-0.34211044102324162</v>
+      </c>
+      <c r="B5">
+        <v>6.0252714446059805E-23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-0.33923888977147248</v>
+      </c>
+      <c r="B6">
+        <v>2.3787829123043704E-3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>-0.31756110482153571</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.1541030515243859E-6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-0.30648690491723568</v>
+      </c>
+      <c r="B8">
+        <v>6.3501918465237953E-3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-0.30071138338446601</v>
+      </c>
+      <c r="B9">
+        <v>6.7753908818602256E-13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2">
-        <v>-0.40799107049532313</v>
-      </c>
-      <c r="D2">
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.31756110482153571</v>
+      </c>
+      <c r="B10">
+        <v>1.1541030515243859E-6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.32344395445107677</v>
+      </c>
+      <c r="B11">
+        <v>7.1014639797793071E-7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.34211044102324162</v>
+      </c>
+      <c r="B12">
+        <v>6.0252714446059805E-23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.36149584299542792</v>
+      </c>
+      <c r="B13">
+        <v>1.1467044859530457E-3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.39314512031276672</v>
+      </c>
+      <c r="B14">
+        <v>9.824606340752927E-10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.40799107049532313</v>
+      </c>
+      <c r="B15">
         <v>2.0904993926503711E-4</v>
       </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3">
-        <v>-0.40799107049532313</v>
-      </c>
-      <c r="D3">
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.33194614207258616</v>
+      </c>
+      <c r="B16">
+        <v>2.9875854560087304E-3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.34211044102324162</v>
+      </c>
+      <c r="B17">
+        <v>6.0252714446059805E-23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.39314512031276672</v>
+      </c>
+      <c r="B18">
+        <v>9.824606340752927E-10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.40799107049532313</v>
+      </c>
+      <c r="B19">
         <v>2.0904993926503711E-4</v>
       </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4">
-        <v>-0.39314512031276672</v>
-      </c>
-      <c r="D4">
-        <v>9.824606340752927E-10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5">
-        <v>-0.35852421900026671</v>
-      </c>
-      <c r="D5">
-        <v>1.2679064114494297E-3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6">
-        <v>-0.34903871161603972</v>
-      </c>
-      <c r="D6">
-        <v>1.7362811388280509E-3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7">
-        <v>-0.34211044102324162</v>
-      </c>
-      <c r="D7">
-        <v>6.0252714446059805E-23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8">
-        <v>-0.33884804082810988</v>
-      </c>
-      <c r="D8">
-        <v>2.4083446153709085E-3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9">
-        <v>-0.32357090188932253</v>
-      </c>
-      <c r="D9">
-        <v>7.0266363954865425E-7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10">
-        <v>-0.3192374743410385</v>
-      </c>
-      <c r="D10">
-        <v>4.3876460673841159E-3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11">
-        <v>-0.30695908160252827</v>
-      </c>
-      <c r="D11">
-        <v>6.2655924685086125E-3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12">
-        <v>-0.30364760376851058</v>
-      </c>
-      <c r="D12">
-        <v>6.8804722189555918E-3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13">
-        <v>-0.30361753544379239</v>
-      </c>
-      <c r="D13">
-        <v>6.8862904732032533E-3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14">
-        <v>-0.30361076988960428</v>
-      </c>
-      <c r="D14">
-        <v>6.88760021229498E-3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15">
-        <v>0.30066101722960897</v>
-      </c>
-      <c r="D15">
-        <v>7.4799649220925208E-3</v>
-      </c>
-      <c r="F15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16">
-        <v>0.30360889821532899</v>
-      </c>
-      <c r="D16">
-        <v>6.8879625871891021E-3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17">
-        <v>0.30361076988960428</v>
-      </c>
-      <c r="D17">
-        <v>6.88760021229498E-3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18">
-        <v>0.30361142621311638</v>
-      </c>
-      <c r="D18">
-        <v>6.887473145461535E-3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19">
-        <v>0.30361142621311638</v>
-      </c>
-      <c r="D19">
-        <v>6.887473145461535E-3</v>
-      </c>
-      <c r="E19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C20">
         <v>0.30361753544379266</v>
@@ -981,18 +1052,18 @@
         <v>6.8862904732032064E-3</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <v>0.30364761132410728</v>
@@ -1001,18 +1072,18 @@
         <v>6.8804707574833604E-3</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <v>0.32043141878649467</v>
@@ -1021,18 +1092,18 @@
         <v>4.2349319598352165E-3</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C23">
         <v>0.32357090188932253</v>
@@ -1041,18 +1112,18 @@
         <v>7.0266363954865425E-7</v>
       </c>
       <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
         <v>35</v>
       </c>
-      <c r="F23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C24">
         <v>0.33886218188163514</v>
@@ -1061,18 +1132,18 @@
         <v>2.4072693431733501E-3</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C25">
         <v>0.34211044102324162</v>
@@ -1081,18 +1152,18 @@
         <v>6.0252714446059805E-23</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C26">
         <v>0.34903871161603972</v>
@@ -1101,18 +1172,18 @@
         <v>1.7362811388280509E-3</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C27">
         <v>0.39314512031276672</v>
@@ -1121,18 +1192,18 @@
         <v>9.824606340752927E-10</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C28">
         <v>0.40799107049532313</v>
@@ -1141,7 +1212,7 @@
         <v>2.0904993926503711E-4</v>
       </c>
       <c r="F28" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
